--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5496" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -771,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -818,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -864,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -973,10 +991,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1020,28 +1038,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="3">
+      <c r="C31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1066,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1175,10 +1193,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1222,28 +1240,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="3">
+      <c r="C38" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1268,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1377,10 +1395,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1424,28 +1442,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="3">
+      <c r="C45" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1470,28 +1488,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1579,10 +1597,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1626,28 +1644,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="3">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1672,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1781,10 +1799,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1828,28 +1846,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1874,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2001,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2048,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2094,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2185,10 +2203,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2232,28 +2250,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2278,28 +2296,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2387,10 +2405,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2434,28 +2452,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2480,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2589,10 +2607,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2636,28 +2654,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="3">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2682,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2791,10 +2809,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2838,28 +2856,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="3">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2884,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2993,10 +3011,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3040,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="3">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3086,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3195,10 +3213,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="3" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3242,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="3">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="3">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3288,28 +3306,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="3">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="3">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="3">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3397,10 +3415,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3444,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3490,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3599,10 +3617,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3646,28 +3664,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3692,28 +3710,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3819,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3866,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3912,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4021,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4068,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4223,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4270,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4316,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4425,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="3" t="s">
+      <c r="J148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4454,28 +4472,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="3">
+      <c r="A150" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="3">
+      <c r="C150" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4518,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="3">
+      <c r="C152" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="3">
+      <c r="D152" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="3">
+      <c r="I152" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4609,10 +4627,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4656,28 +4674,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4702,28 +4720,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4811,10 +4829,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="3" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4858,28 +4876,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="3">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="3">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4904,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="3">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="3">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="3">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5013,10 +5031,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="3" t="s">
+      <c r="J169" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5060,28 +5078,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="3">
+      <c r="A171" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="3">
+      <c r="C171" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5106,28 +5124,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="3">
+      <c r="C173" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="3">
+      <c r="D173" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="3">
+      <c r="I173" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5215,10 +5233,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5262,28 +5280,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5308,28 +5326,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5417,10 +5435,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5464,28 +5482,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5510,28 +5528,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5619,10 +5637,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5666,28 +5684,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5712,28 +5730,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5839,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="3" t="s">
+      <c r="J197" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5886,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="3">
+      <c r="A199" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="3">
+      <c r="C199" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5932,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="3">
+      <c r="B201" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="3">
+      <c r="C201" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="3">
+      <c r="D201" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="3">
+      <c r="E201" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="3">
+      <c r="F201" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="3">
+      <c r="G201" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="3">
+      <c r="H201" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="3">
+      <c r="I201" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6052,10 +6070,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6099,28 +6117,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6145,28 +6163,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6254,10 +6272,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6301,28 +6319,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6347,28 +6365,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6456,10 +6474,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6503,28 +6521,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6549,28 +6567,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6658,10 +6676,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="3" t="s">
+      <c r="J226" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6705,28 +6723,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="3">
+      <c r="A228" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="3">
+      <c r="C228" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6751,28 +6769,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="3">
+      <c r="C230" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="3">
+      <c r="D230" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="3">
+      <c r="I230" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6860,10 +6878,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="3" t="s">
+      <c r="J233" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6907,28 +6925,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="3">
+      <c r="A235" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="3">
+      <c r="C235" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6953,28 +6971,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="3">
+      <c r="B237" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="3">
+      <c r="C237" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="3">
+      <c r="D237" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="3">
+      <c r="E237" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="3">
+      <c r="F237" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="3">
+      <c r="G237" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="3">
+      <c r="H237" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="3">
+      <c r="I237" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7062,10 +7080,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7109,28 +7127,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7155,28 +7173,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7264,10 +7282,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="3" t="s">
+      <c r="J247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7311,28 +7329,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="3">
+      <c r="A249" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="3">
+      <c r="C249" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7357,28 +7375,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="3">
+      <c r="C251" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="3">
+      <c r="D251" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="3">
+      <c r="I251" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7466,10 +7484,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="3" t="s">
+      <c r="J254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7513,28 +7531,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="3">
+      <c r="A256" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="3">
+      <c r="C256" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7559,28 +7577,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="3">
+      <c r="C258" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="3">
+      <c r="D258" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="3">
+      <c r="I258" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7668,10 +7686,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7715,28 +7733,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7761,28 +7779,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7870,10 +7888,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7917,28 +7935,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7963,28 +7981,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8072,10 +8090,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="3" t="s">
+      <c r="J275" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8119,28 +8137,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="3">
+      <c r="A277" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="3">
+      <c r="B277" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="3">
+      <c r="C277" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="3">
+      <c r="E277" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="3">
+      <c r="F277" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="3">
+      <c r="G277" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="3">
+      <c r="H277" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8165,28 +8183,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="3">
+      <c r="C279" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="3">
+      <c r="D279" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="3">
+      <c r="I279" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8274,10 +8292,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="3" t="s">
+      <c r="J282" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8321,28 +8339,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="3">
+      <c r="A284" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="3">
+      <c r="B284" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="3">
+      <c r="C284" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="3">
+      <c r="E284" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="3">
+      <c r="F284" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="3">
+      <c r="G284" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="3">
+      <c r="H284" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8367,28 +8385,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="3">
+      <c r="B286" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="3">
+      <c r="C286" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="3">
+      <c r="D286" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="3">
+      <c r="E286" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="3">
+      <c r="F286" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="3">
+      <c r="G286" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="3">
+      <c r="H286" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="3">
+      <c r="I286" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8476,10 +8494,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="3" t="s">
+      <c r="J289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8523,28 +8541,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="3">
+      <c r="A291" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="3">
+      <c r="B291" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="3">
+      <c r="C291" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="3">
+      <c r="E291" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="3">
+      <c r="F291" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="3">
+      <c r="G291" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="3">
+      <c r="H291" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8569,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="3">
+      <c r="B293" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="3">
+      <c r="C293" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="3">
+      <c r="D293" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="3">
+      <c r="E293" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="3">
+      <c r="F293" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="3">
+      <c r="G293" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="3">
+      <c r="H293" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="3">
+      <c r="I293" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8678,10 +8696,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="3" t="s">
+      <c r="J296" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8725,28 +8743,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="3">
+      <c r="A298" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="3">
+      <c r="B298" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="3">
+      <c r="C298" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="3">
+      <c r="E298" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="3">
+      <c r="F298" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="3">
+      <c r="G298" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="3">
+      <c r="H298" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8771,28 +8789,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="3">
+      <c r="B300" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="3">
+      <c r="C300" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="3">
+      <c r="D300" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="3">
+      <c r="E300" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="3">
+      <c r="F300" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="3">
+      <c r="G300" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="3">
+      <c r="H300" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="3">
+      <c r="I300" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8880,10 +8898,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="3" t="s">
+      <c r="J303" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8927,28 +8945,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="3">
+      <c r="A305" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="3">
+      <c r="B305" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="3">
+      <c r="C305" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="3">
+      <c r="E305" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="3">
+      <c r="F305" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="3">
+      <c r="G305" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="3">
+      <c r="H305" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8973,28 +8991,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="3">
+      <c r="B307" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="3">
+      <c r="C307" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="3">
+      <c r="D307" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="3">
+      <c r="E307" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="3">
+      <c r="F307" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="3">
+      <c r="G307" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="3">
+      <c r="H307" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="3">
+      <c r="I307" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9082,10 +9100,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="3" t="s">
+      <c r="J310" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9129,28 +9147,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="3">
+      <c r="A312" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="3">
+      <c r="B312" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="3">
+      <c r="C312" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="3">
+      <c r="E312" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="3">
+      <c r="F312" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="3">
+      <c r="G312" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="3">
+      <c r="H312" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9175,28 +9193,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="3">
+      <c r="B314" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="3">
+      <c r="C314" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="3">
+      <c r="D314" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="3">
+      <c r="E314" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="3">
+      <c r="F314" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="3">
+      <c r="G314" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="3">
+      <c r="H314" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="3">
+      <c r="I314" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9255,10 +9273,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="3" t="s">
+      <c r="J316" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9302,28 +9320,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="3">
+      <c r="A318" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="3">
+      <c r="B318" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="3">
+      <c r="C318" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="3">
+      <c r="E318" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="3">
+      <c r="F318" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="3">
+      <c r="G318" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="3">
+      <c r="H318" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9348,28 +9366,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="3">
+      <c r="B320" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="3">
+      <c r="C320" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="3">
+      <c r="D320" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="3">
+      <c r="E320" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="3">
+      <c r="F320" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="3">
+      <c r="G320" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="3">
+      <c r="H320" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="3">
+      <c r="I320" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9457,10 +9475,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="3" t="s">
+      <c r="J323" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9504,28 +9522,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="3">
+      <c r="A325" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="3">
+      <c r="B325" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="3">
+      <c r="C325" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="3">
+      <c r="E325" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="3">
+      <c r="F325" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="3">
+      <c r="G325" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="3">
+      <c r="H325" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9550,28 +9568,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="3">
+      <c r="B327" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="3">
+      <c r="C327" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="3">
+      <c r="D327" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="3">
+      <c r="E327" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="3">
+      <c r="F327" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="3">
+      <c r="G327" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="3">
+      <c r="H327" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="3">
+      <c r="I327" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9659,10 +9677,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="3" t="s">
+      <c r="J330" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9706,28 +9724,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="3">
+      <c r="A332" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="3">
+      <c r="B332" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="3">
+      <c r="C332" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="3">
+      <c r="E332" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="3">
+      <c r="F332" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="3">
+      <c r="G332" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="3">
+      <c r="H332" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9752,28 +9770,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="3">
+      <c r="B334" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="3">
+      <c r="C334" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="3">
+      <c r="D334" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="3">
+      <c r="E334" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="3">
+      <c r="F334" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="3">
+      <c r="G334" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="3">
+      <c r="H334" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="3">
+      <c r="I334" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9861,10 +9879,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="3" t="s">
+      <c r="J337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9908,28 +9926,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="3">
+      <c r="A339" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="3">
+      <c r="B339" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="3">
+      <c r="C339" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="3">
+      <c r="E339" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="3">
+      <c r="F339" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="3">
+      <c r="G339" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="3">
+      <c r="H339" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9954,28 +9972,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="3">
+      <c r="B341" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="3">
+      <c r="C341" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="3">
+      <c r="D341" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="3">
+      <c r="E341" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="3">
+      <c r="F341" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="3">
+      <c r="G341" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="3">
+      <c r="H341" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="3">
+      <c r="I341" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -10063,10 +10081,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="3" t="s">
+      <c r="J344" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10110,28 +10128,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="3">
+      <c r="A346" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="3">
+      <c r="B346" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="3">
+      <c r="C346" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="3">
+      <c r="E346" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="3">
+      <c r="F346" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="3">
+      <c r="G346" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="3">
+      <c r="H346" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -10156,28 +10174,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="3">
+      <c r="B348" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="3">
+      <c r="C348" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="3">
+      <c r="D348" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="3">
+      <c r="E348" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="3">
+      <c r="F348" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="3">
+      <c r="G348" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="3">
+      <c r="H348" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="3">
+      <c r="I348" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -10265,10 +10283,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="3" t="s">
+      <c r="J351" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5496" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12824" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -153,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -161,6 +201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -183,26 +231,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true">
-      <c r="A1" t="s" s="6">
+    <row r="1" s="14" customFormat="true">
+      <c r="A1" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" t="s" s="14">
         <v>7</v>
       </c>
     </row>
@@ -230,28 +278,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -276,28 +324,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="I5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -385,10 +433,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -432,28 +480,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="6">
+      <c r="C10" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="6">
+      <c r="E10" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="6">
+      <c r="G10" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="6">
+      <c r="C12" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="6">
+      <c r="D12" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="H12" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="6">
+      <c r="I12" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -587,10 +635,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -634,28 +682,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="6">
+      <c r="C17" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="6">
+      <c r="E17" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="F17" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="6">
+      <c r="G17" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="6">
+      <c r="H17" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="6">
+      <c r="C19" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="6">
+      <c r="D19" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="6">
+      <c r="E19" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="6">
+      <c r="F19" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="6">
+      <c r="G19" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="6">
+      <c r="H19" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="6">
+      <c r="I19" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -789,10 +837,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -836,28 +884,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="6">
+      <c r="C24" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="6">
+      <c r="E24" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="6">
+      <c r="F24" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="6">
+      <c r="G24" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="6">
+      <c r="H24" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="6">
+      <c r="B26" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="6">
+      <c r="C26" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="6">
+      <c r="D26" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="6">
+      <c r="E26" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="6">
+      <c r="F26" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="6">
+      <c r="G26" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="6">
+      <c r="H26" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="6">
+      <c r="I26" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -991,10 +1039,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1038,28 +1086,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="6">
+      <c r="A31" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="B31" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="6">
+      <c r="C31" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="6">
+      <c r="E31" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="6">
+      <c r="F31" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="6">
+      <c r="G31" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="6">
+      <c r="H31" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1084,28 +1132,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="6">
+      <c r="B33" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="6">
+      <c r="C33" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="6">
+      <c r="D33" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="6">
+      <c r="E33" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="6">
+      <c r="F33" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="6">
+      <c r="G33" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="6">
+      <c r="H33" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="6">
+      <c r="I33" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1193,10 +1241,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="6" t="s">
+      <c r="J36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1240,28 +1288,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="6">
+      <c r="A38" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="6">
+      <c r="B38" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="6">
+      <c r="C38" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="6">
+      <c r="E38" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="6">
+      <c r="F38" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="6">
+      <c r="G38" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="6">
+      <c r="H38" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="6">
+      <c r="B40" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="6">
+      <c r="C40" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="6">
+      <c r="D40" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="6">
+      <c r="E40" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="6">
+      <c r="F40" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="6">
+      <c r="G40" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="6">
+      <c r="H40" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="6">
+      <c r="I40" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1395,10 +1443,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="J43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1442,28 +1490,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="6">
+      <c r="A45" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="6">
+      <c r="B45" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="6">
+      <c r="C45" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="6">
+      <c r="E45" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="6">
+      <c r="F45" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="6">
+      <c r="G45" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="6">
+      <c r="H45" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1488,28 +1536,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="6">
+      <c r="B47" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="6">
+      <c r="C47" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="6">
+      <c r="D47" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="6">
+      <c r="E47" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="6">
+      <c r="F47" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="6">
+      <c r="G47" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="6">
+      <c r="H47" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="6">
+      <c r="I47" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1597,10 +1645,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="6" t="s">
+      <c r="J50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1644,28 +1692,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="6">
+      <c r="A52" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="6">
+      <c r="B52" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="6">
+      <c r="C52" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="6">
+      <c r="E52" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="6">
+      <c r="F52" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="6">
+      <c r="G52" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="6">
+      <c r="H52" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1690,28 +1738,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="6">
+      <c r="B54" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="6">
+      <c r="C54" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="6">
+      <c r="D54" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="6">
+      <c r="E54" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="6">
+      <c r="F54" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="6">
+      <c r="G54" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="6">
+      <c r="H54" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="6">
+      <c r="I54" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1799,10 +1847,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="6" t="s">
+      <c r="J57" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1846,28 +1894,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="6">
+      <c r="A59" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="6">
+      <c r="B59" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="6">
+      <c r="C59" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="6">
+      <c r="E59" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="6">
+      <c r="F59" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="6">
+      <c r="G59" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="6">
+      <c r="H59" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1892,28 +1940,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="6">
+      <c r="B61" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="6">
+      <c r="C61" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="6">
+      <c r="D61" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="6">
+      <c r="E61" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="6">
+      <c r="F61" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="6">
+      <c r="G61" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="6">
+      <c r="H61" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="6">
+      <c r="I61" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2001,10 +2049,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="6" t="s">
+      <c r="J64" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2048,28 +2096,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="6">
+      <c r="A66" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="6">
+      <c r="B66" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="6">
+      <c r="C66" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="6">
+      <c r="E66" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="6">
+      <c r="F66" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="6">
+      <c r="G66" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="6">
+      <c r="H66" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2094,28 +2142,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="6">
+      <c r="B68" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="6">
+      <c r="C68" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="6">
+      <c r="D68" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="6">
+      <c r="E68" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="6">
+      <c r="F68" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="6">
+      <c r="G68" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="6">
+      <c r="H68" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="6">
+      <c r="I68" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2203,10 +2251,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="6" t="s">
+      <c r="J71" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2250,28 +2298,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="6">
+      <c r="A73" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="6">
+      <c r="B73" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="6">
+      <c r="C73" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="6">
+      <c r="E73" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="6">
+      <c r="F73" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="6">
+      <c r="G73" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="6">
+      <c r="H73" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2296,28 +2344,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="6">
+      <c r="B75" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="6">
+      <c r="C75" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="6">
+      <c r="D75" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="6">
+      <c r="E75" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="6">
+      <c r="F75" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="6">
+      <c r="G75" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="6">
+      <c r="H75" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="6">
+      <c r="I75" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2405,10 +2453,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="6" t="s">
+      <c r="J78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2452,28 +2500,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="6">
+      <c r="A80" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="6">
+      <c r="B80" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="6">
+      <c r="C80" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="6">
+      <c r="E80" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="6">
+      <c r="F80" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="6">
+      <c r="G80" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="6">
+      <c r="H80" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2498,28 +2546,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="6">
+      <c r="B82" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="6">
+      <c r="C82" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="6">
+      <c r="D82" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="6">
+      <c r="E82" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="6">
+      <c r="F82" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="6">
+      <c r="G82" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="6">
+      <c r="H82" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="6">
+      <c r="I82" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2607,10 +2655,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="6" t="s">
+      <c r="J85" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2654,28 +2702,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="6">
+      <c r="A87" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="6">
+      <c r="B87" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="6">
+      <c r="C87" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="6">
+      <c r="E87" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="6">
+      <c r="F87" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="6">
+      <c r="G87" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="6">
+      <c r="H87" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2700,28 +2748,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="6">
+      <c r="B89" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="6">
+      <c r="C89" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="6">
+      <c r="D89" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="6">
+      <c r="E89" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="6">
+      <c r="F89" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="6">
+      <c r="G89" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="6">
+      <c r="H89" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="6">
+      <c r="I89" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2809,10 +2857,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="6" t="s">
+      <c r="J92" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2856,28 +2904,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="6">
+      <c r="A94" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="6">
+      <c r="B94" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="6">
+      <c r="C94" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="6">
+      <c r="E94" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="6">
+      <c r="F94" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="6">
+      <c r="G94" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="6">
+      <c r="H94" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2902,28 +2950,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="6">
+      <c r="B96" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="6">
+      <c r="C96" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="6">
+      <c r="D96" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="6">
+      <c r="E96" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="6">
+      <c r="F96" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="6">
+      <c r="G96" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="6">
+      <c r="H96" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="6">
+      <c r="I96" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3011,10 +3059,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="6" t="s">
+      <c r="J99" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3058,28 +3106,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="6">
+      <c r="A101" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="6">
+      <c r="B101" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="6">
+      <c r="C101" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="6">
+      <c r="E101" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="6">
+      <c r="F101" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="6">
+      <c r="G101" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="6">
+      <c r="H101" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3104,28 +3152,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="6">
+      <c r="B103" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="6">
+      <c r="C103" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="6">
+      <c r="D103" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="6">
+      <c r="E103" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="6">
+      <c r="F103" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="6">
+      <c r="G103" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="6">
+      <c r="H103" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="6">
+      <c r="I103" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3213,10 +3261,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="6" t="s">
+      <c r="J106" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3260,28 +3308,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="6">
+      <c r="A108" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="6">
+      <c r="B108" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="6">
+      <c r="C108" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="6">
+      <c r="E108" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="6">
+      <c r="F108" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="6">
+      <c r="G108" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="6">
+      <c r="H108" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3306,28 +3354,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="6">
+      <c r="B110" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="6">
+      <c r="C110" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="6">
+      <c r="D110" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="6">
+      <c r="E110" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="6">
+      <c r="F110" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="6">
+      <c r="G110" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="6">
+      <c r="H110" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="6">
+      <c r="I110" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3415,10 +3463,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="6" t="s">
+      <c r="J113" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3462,28 +3510,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="6">
+      <c r="A115" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="6">
+      <c r="B115" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="6">
+      <c r="C115" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="6">
+      <c r="E115" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="6">
+      <c r="F115" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="6">
+      <c r="G115" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="6">
+      <c r="H115" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3508,28 +3556,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="6">
+      <c r="B117" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="6">
+      <c r="C117" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="6">
+      <c r="D117" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="6">
+      <c r="E117" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="6">
+      <c r="F117" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="6">
+      <c r="G117" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="6">
+      <c r="H117" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="6">
+      <c r="I117" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3617,10 +3665,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="6" t="s">
+      <c r="J120" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3664,28 +3712,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="6">
+      <c r="A122" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="6">
+      <c r="B122" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="6">
+      <c r="C122" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="6">
+      <c r="E122" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="6">
+      <c r="F122" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="6">
+      <c r="G122" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="6">
+      <c r="H122" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3710,28 +3758,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="6">
+      <c r="B124" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="6">
+      <c r="C124" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="6">
+      <c r="D124" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="6">
+      <c r="E124" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="6">
+      <c r="F124" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="6">
+      <c r="G124" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="6">
+      <c r="H124" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="6">
+      <c r="I124" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3819,10 +3867,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="6" t="s">
+      <c r="J127" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3866,28 +3914,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="6">
+      <c r="A129" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="6">
+      <c r="B129" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="6">
+      <c r="C129" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="6">
+      <c r="E129" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="6">
+      <c r="F129" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="6">
+      <c r="G129" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="6">
+      <c r="H129" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3912,28 +3960,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="6">
+      <c r="B131" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="6">
+      <c r="C131" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="6">
+      <c r="D131" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="6">
+      <c r="E131" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="6">
+      <c r="F131" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="6">
+      <c r="G131" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="6">
+      <c r="H131" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="6">
+      <c r="I131" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4021,10 +4069,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="6" t="s">
+      <c r="J134" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4068,28 +4116,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="6">
+      <c r="A136" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="6">
+      <c r="B136" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="6">
+      <c r="C136" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="6">
+      <c r="E136" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="6">
+      <c r="F136" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="6">
+      <c r="G136" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="6">
+      <c r="H136" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4114,28 +4162,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="6">
+      <c r="B138" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="6">
+      <c r="C138" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="6">
+      <c r="D138" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="6">
+      <c r="E138" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="6">
+      <c r="F138" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="6">
+      <c r="G138" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="6">
+      <c r="H138" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="6">
+      <c r="I138" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4223,10 +4271,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="6" t="s">
+      <c r="J141" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4270,28 +4318,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="6">
+      <c r="A143" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="6">
+      <c r="B143" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="6">
+      <c r="C143" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="6">
+      <c r="E143" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="6">
+      <c r="F143" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="6">
+      <c r="G143" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="6">
+      <c r="H143" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4316,28 +4364,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="6">
+      <c r="B145" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="6">
+      <c r="C145" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="6">
+      <c r="D145" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="6">
+      <c r="E145" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="6">
+      <c r="F145" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="6">
+      <c r="G145" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="6">
+      <c r="H145" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="6">
+      <c r="I145" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4425,10 +4473,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="6" t="s">
+      <c r="J148" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4472,28 +4520,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="6">
+      <c r="A150" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="6">
+      <c r="B150" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="6">
+      <c r="C150" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="6">
+      <c r="E150" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="6">
+      <c r="F150" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="6">
+      <c r="G150" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="6">
+      <c r="H150" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4518,28 +4566,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="6">
+      <c r="B152" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="6">
+      <c r="C152" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="6">
+      <c r="D152" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="6">
+      <c r="E152" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="6">
+      <c r="F152" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="6">
+      <c r="G152" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="6">
+      <c r="H152" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="6">
+      <c r="I152" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4627,10 +4675,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="6" t="s">
+      <c r="J155" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4674,28 +4722,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="6">
+      <c r="A157" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="6">
+      <c r="B157" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="6">
+      <c r="C157" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="6">
+      <c r="E157" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="6">
+      <c r="F157" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="6">
+      <c r="G157" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="6">
+      <c r="H157" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4720,28 +4768,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="6">
+      <c r="B159" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="6">
+      <c r="C159" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="6">
+      <c r="D159" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="6">
+      <c r="E159" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="6">
+      <c r="F159" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="6">
+      <c r="G159" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="6">
+      <c r="H159" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="6">
+      <c r="I159" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4829,10 +4877,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="6" t="s">
+      <c r="J162" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4876,28 +4924,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="6">
+      <c r="A164" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="6">
+      <c r="B164" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="6">
+      <c r="C164" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="6">
+      <c r="E164" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="6">
+      <c r="F164" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="6">
+      <c r="G164" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="6">
+      <c r="H164" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4922,28 +4970,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="6">
+      <c r="B166" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="6">
+      <c r="C166" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="6">
+      <c r="D166" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="6">
+      <c r="E166" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="6">
+      <c r="F166" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="6">
+      <c r="G166" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="6">
+      <c r="H166" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="6">
+      <c r="I166" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5031,10 +5079,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="6" t="s">
+      <c r="J169" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5078,28 +5126,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="6">
+      <c r="A171" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="6">
+      <c r="B171" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="6">
+      <c r="C171" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="6">
+      <c r="E171" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="6">
+      <c r="F171" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="6">
+      <c r="G171" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="6">
+      <c r="H171" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5124,28 +5172,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="6">
+      <c r="B173" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="6">
+      <c r="C173" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="6">
+      <c r="D173" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="6">
+      <c r="E173" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="6">
+      <c r="F173" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="6">
+      <c r="G173" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="6">
+      <c r="H173" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="6">
+      <c r="I173" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5233,10 +5281,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="6" t="s">
+      <c r="J176" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5280,28 +5328,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="6">
+      <c r="A178" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="6">
+      <c r="B178" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="6">
+      <c r="C178" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="6">
+      <c r="E178" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="6">
+      <c r="F178" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="6">
+      <c r="G178" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="6">
+      <c r="H178" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5326,28 +5374,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="6">
+      <c r="B180" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="6">
+      <c r="C180" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="6">
+      <c r="D180" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="6">
+      <c r="E180" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="6">
+      <c r="F180" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="6">
+      <c r="G180" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="6">
+      <c r="H180" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="6">
+      <c r="I180" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5435,10 +5483,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="6" t="s">
+      <c r="J183" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5482,28 +5530,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="6">
+      <c r="A185" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="6">
+      <c r="B185" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="6">
+      <c r="C185" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="6">
+      <c r="E185" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="6">
+      <c r="F185" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="6">
+      <c r="G185" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="6">
+      <c r="H185" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5528,28 +5576,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="6">
+      <c r="B187" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="6">
+      <c r="C187" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="6">
+      <c r="D187" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="6">
+      <c r="E187" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="6">
+      <c r="F187" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="6">
+      <c r="G187" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="6">
+      <c r="H187" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="6">
+      <c r="I187" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5637,10 +5685,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="6" t="s">
+      <c r="J190" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5684,28 +5732,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="6">
+      <c r="A192" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="6">
+      <c r="B192" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="6">
+      <c r="C192" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="6">
+      <c r="E192" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="6">
+      <c r="F192" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="6">
+      <c r="G192" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="6">
+      <c r="H192" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5730,28 +5778,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="6">
+      <c r="B194" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="6">
+      <c r="C194" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="6">
+      <c r="D194" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="6">
+      <c r="E194" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="6">
+      <c r="F194" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="6">
+      <c r="G194" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="6">
+      <c r="H194" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="6">
+      <c r="I194" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5839,10 +5887,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="6" t="s">
+      <c r="J197" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5886,28 +5934,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="6">
+      <c r="A199" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="6">
+      <c r="B199" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="6">
+      <c r="C199" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="6">
+      <c r="E199" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="6">
+      <c r="F199" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="6">
+      <c r="G199" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="6">
+      <c r="H199" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5932,28 +5980,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="6">
+      <c r="B201" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="6">
+      <c r="C201" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="6">
+      <c r="D201" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="6">
+      <c r="E201" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="6">
+      <c r="F201" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="6">
+      <c r="G201" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="6">
+      <c r="H201" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="6">
+      <c r="I201" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6070,10 +6118,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="6" t="s">
+      <c r="J205" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6117,28 +6165,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="6">
+      <c r="A207" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="6">
+      <c r="B207" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="6">
+      <c r="C207" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="6">
+      <c r="E207" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="6">
+      <c r="F207" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="6">
+      <c r="G207" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="6">
+      <c r="H207" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6163,28 +6211,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="6">
+      <c r="B209" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="6">
+      <c r="C209" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="6">
+      <c r="D209" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="6">
+      <c r="E209" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="6">
+      <c r="F209" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="6">
+      <c r="G209" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="6">
+      <c r="H209" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="6">
+      <c r="I209" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6272,10 +6320,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="6" t="s">
+      <c r="J212" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6319,28 +6367,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="6">
+      <c r="A214" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="6">
+      <c r="B214" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="6">
+      <c r="C214" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="6">
+      <c r="E214" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="6">
+      <c r="F214" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="6">
+      <c r="G214" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="6">
+      <c r="H214" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6365,28 +6413,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="6">
+      <c r="B216" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="6">
+      <c r="C216" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="6">
+      <c r="D216" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="6">
+      <c r="E216" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="6">
+      <c r="F216" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="6">
+      <c r="G216" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="6">
+      <c r="H216" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="6">
+      <c r="I216" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6474,10 +6522,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="6" t="s">
+      <c r="J219" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6521,28 +6569,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="6">
+      <c r="A221" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="6">
+      <c r="B221" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="6">
+      <c r="C221" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="6">
+      <c r="E221" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="6">
+      <c r="F221" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="6">
+      <c r="G221" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="6">
+      <c r="H221" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6567,28 +6615,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="6">
+      <c r="B223" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="6">
+      <c r="C223" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="6">
+      <c r="D223" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="6">
+      <c r="E223" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="6">
+      <c r="F223" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="6">
+      <c r="G223" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="6">
+      <c r="H223" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="6">
+      <c r="I223" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6676,10 +6724,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="6" t="s">
+      <c r="J226" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6723,28 +6771,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="6">
+      <c r="A228" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="6">
+      <c r="B228" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="6">
+      <c r="C228" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="6">
+      <c r="E228" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="6">
+      <c r="F228" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="6">
+      <c r="G228" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="6">
+      <c r="H228" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6769,28 +6817,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="6">
+      <c r="B230" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="6">
+      <c r="C230" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="6">
+      <c r="D230" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="6">
+      <c r="E230" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="6">
+      <c r="F230" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="6">
+      <c r="G230" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="6">
+      <c r="H230" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="6">
+      <c r="I230" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6878,10 +6926,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="6" t="s">
+      <c r="J233" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6925,28 +6973,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="6">
+      <c r="A235" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="6">
+      <c r="B235" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="6">
+      <c r="C235" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="6">
+      <c r="E235" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="6">
+      <c r="F235" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="6">
+      <c r="G235" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="6">
+      <c r="H235" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6971,28 +7019,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="6">
+      <c r="B237" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="6">
+      <c r="C237" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="6">
+      <c r="D237" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="6">
+      <c r="E237" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="6">
+      <c r="F237" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="6">
+      <c r="G237" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="6">
+      <c r="H237" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="6">
+      <c r="I237" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7080,10 +7128,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="6" t="s">
+      <c r="J240" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7127,28 +7175,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="6">
+      <c r="A242" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="6">
+      <c r="B242" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="6">
+      <c r="C242" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="6">
+      <c r="E242" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="6">
+      <c r="F242" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="6">
+      <c r="G242" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="6">
+      <c r="H242" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7173,28 +7221,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="6">
+      <c r="B244" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="6">
+      <c r="C244" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="6">
+      <c r="D244" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="6">
+      <c r="E244" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="6">
+      <c r="F244" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="6">
+      <c r="G244" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="6">
+      <c r="H244" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="6">
+      <c r="I244" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7282,10 +7330,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="6" t="s">
+      <c r="J247" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7329,28 +7377,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="6">
+      <c r="A249" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="6">
+      <c r="B249" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="6">
+      <c r="C249" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="6">
+      <c r="E249" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="6">
+      <c r="F249" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="6">
+      <c r="G249" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="6">
+      <c r="H249" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7375,28 +7423,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="6">
+      <c r="B251" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="6">
+      <c r="C251" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="6">
+      <c r="D251" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="6">
+      <c r="E251" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="6">
+      <c r="F251" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="6">
+      <c r="G251" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="6">
+      <c r="H251" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="6">
+      <c r="I251" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7484,10 +7532,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="6" t="s">
+      <c r="J254" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7531,28 +7579,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="6">
+      <c r="A256" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="6">
+      <c r="B256" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="6">
+      <c r="C256" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="6">
+      <c r="E256" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="6">
+      <c r="F256" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="6">
+      <c r="G256" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="6">
+      <c r="H256" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7577,28 +7625,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="6">
+      <c r="B258" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="6">
+      <c r="C258" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="6">
+      <c r="D258" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="6">
+      <c r="E258" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="6">
+      <c r="F258" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="6">
+      <c r="G258" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="6">
+      <c r="H258" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="6">
+      <c r="I258" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7686,10 +7734,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="6" t="s">
+      <c r="J261" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7733,28 +7781,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="6">
+      <c r="A263" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="6">
+      <c r="B263" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="6">
+      <c r="C263" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="6">
+      <c r="E263" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="6">
+      <c r="F263" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="6">
+      <c r="G263" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="6">
+      <c r="H263" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7779,28 +7827,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="6">
+      <c r="B265" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="6">
+      <c r="C265" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="6">
+      <c r="D265" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="6">
+      <c r="E265" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="6">
+      <c r="F265" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="6">
+      <c r="G265" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="6">
+      <c r="H265" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="6">
+      <c r="I265" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7888,10 +7936,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="6" t="s">
+      <c r="J268" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7935,28 +7983,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="6">
+      <c r="A270" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="6">
+      <c r="B270" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="6">
+      <c r="C270" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="6">
+      <c r="E270" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="6">
+      <c r="F270" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="6">
+      <c r="G270" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="6">
+      <c r="H270" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7981,28 +8029,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="6">
+      <c r="B272" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="6">
+      <c r="C272" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="6">
+      <c r="D272" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="6">
+      <c r="E272" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="6">
+      <c r="F272" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="6">
+      <c r="G272" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="6">
+      <c r="H272" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="6">
+      <c r="I272" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8090,10 +8138,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="6" t="s">
+      <c r="J275" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8137,28 +8185,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="6">
+      <c r="A277" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="6">
+      <c r="B277" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="6">
+      <c r="C277" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="6">
+      <c r="E277" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="6">
+      <c r="F277" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="6">
+      <c r="G277" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="6">
+      <c r="H277" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8183,28 +8231,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="6">
+      <c r="B279" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="6">
+      <c r="C279" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="6">
+      <c r="D279" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="6">
+      <c r="E279" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="6">
+      <c r="F279" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="6">
+      <c r="G279" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="6">
+      <c r="H279" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="6">
+      <c r="I279" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8292,10 +8340,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="6" t="s">
+      <c r="J282" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8339,28 +8387,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="6">
+      <c r="A284" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="6">
+      <c r="B284" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="6">
+      <c r="C284" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="6">
+      <c r="E284" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="6">
+      <c r="F284" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="6">
+      <c r="G284" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="6">
+      <c r="H284" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8385,28 +8433,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="6">
+      <c r="B286" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="6">
+      <c r="C286" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="6">
+      <c r="D286" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="6">
+      <c r="E286" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="6">
+      <c r="F286" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="6">
+      <c r="G286" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="6">
+      <c r="H286" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="6">
+      <c r="I286" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8494,10 +8542,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="6" t="s">
+      <c r="J289" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8541,28 +8589,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="6">
+      <c r="A291" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="6">
+      <c r="B291" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="6">
+      <c r="C291" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="6">
+      <c r="E291" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="6">
+      <c r="F291" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="6">
+      <c r="G291" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="6">
+      <c r="H291" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8587,28 +8635,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="6">
+      <c r="B293" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="6">
+      <c r="C293" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="6">
+      <c r="D293" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="6">
+      <c r="E293" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="6">
+      <c r="F293" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="6">
+      <c r="G293" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="6">
+      <c r="H293" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="6">
+      <c r="I293" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8696,10 +8744,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="6" t="s">
+      <c r="J296" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8743,28 +8791,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="6">
+      <c r="A298" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="6">
+      <c r="B298" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="6">
+      <c r="C298" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="6">
+      <c r="E298" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="6">
+      <c r="F298" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="6">
+      <c r="G298" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="6">
+      <c r="H298" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8789,28 +8837,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="6">
+      <c r="B300" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="6">
+      <c r="C300" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="6">
+      <c r="D300" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="6">
+      <c r="E300" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="6">
+      <c r="F300" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="6">
+      <c r="G300" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="6">
+      <c r="H300" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="6">
+      <c r="I300" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8898,10 +8946,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="6" t="s">
+      <c r="J303" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8945,28 +8993,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="6">
+      <c r="A305" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="6">
+      <c r="B305" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="6">
+      <c r="C305" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="6">
+      <c r="E305" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="6">
+      <c r="F305" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="6">
+      <c r="G305" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="6">
+      <c r="H305" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8991,28 +9039,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="6">
+      <c r="B307" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="6">
+      <c r="C307" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="6">
+      <c r="D307" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="6">
+      <c r="E307" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="6">
+      <c r="F307" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="6">
+      <c r="G307" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="6">
+      <c r="H307" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="6">
+      <c r="I307" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9100,10 +9148,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="6" t="s">
+      <c r="J310" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9147,28 +9195,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="6">
+      <c r="A312" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="6">
+      <c r="B312" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="6">
+      <c r="C312" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="6">
+      <c r="E312" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="6">
+      <c r="F312" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="6">
+      <c r="G312" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="6">
+      <c r="H312" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9193,28 +9241,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="6">
+      <c r="B314" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="6">
+      <c r="C314" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="6">
+      <c r="D314" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="6">
+      <c r="E314" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="6">
+      <c r="F314" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="6">
+      <c r="G314" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="6">
+      <c r="H314" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="6">
+      <c r="I314" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9273,10 +9321,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="6" t="s">
+      <c r="J316" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9320,28 +9368,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="6">
+      <c r="A318" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="6">
+      <c r="B318" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="6">
+      <c r="C318" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="6">
+      <c r="E318" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="6">
+      <c r="F318" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="6">
+      <c r="G318" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="6">
+      <c r="H318" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9366,28 +9414,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="6">
+      <c r="B320" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="6">
+      <c r="C320" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="6">
+      <c r="D320" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="6">
+      <c r="E320" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="6">
+      <c r="F320" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="6">
+      <c r="G320" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="6">
+      <c r="H320" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="6">
+      <c r="I320" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9475,10 +9523,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="6" t="s">
+      <c r="J323" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9522,28 +9570,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="6">
+      <c r="A325" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="6">
+      <c r="B325" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="6">
+      <c r="C325" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="6">
+      <c r="E325" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="6">
+      <c r="F325" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="6">
+      <c r="G325" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="6">
+      <c r="H325" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9568,28 +9616,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="6">
+      <c r="B327" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="6">
+      <c r="C327" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="6">
+      <c r="D327" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="6">
+      <c r="E327" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="6">
+      <c r="F327" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="6">
+      <c r="G327" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="6">
+      <c r="H327" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="6">
+      <c r="I327" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9677,10 +9725,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="6" t="s">
+      <c r="J330" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9724,28 +9772,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="6">
+      <c r="A332" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="6">
+      <c r="B332" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="6">
+      <c r="C332" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="6">
+      <c r="E332" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="6">
+      <c r="F332" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="6">
+      <c r="G332" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="6">
+      <c r="H332" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9770,28 +9818,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="6">
+      <c r="B334" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="6">
+      <c r="C334" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="6">
+      <c r="D334" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="6">
+      <c r="E334" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="6">
+      <c r="F334" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="6">
+      <c r="G334" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="6">
+      <c r="H334" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="6">
+      <c r="I334" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9879,10 +9927,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="6" t="s">
+      <c r="J337" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9926,28 +9974,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="6">
+      <c r="A339" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="6">
+      <c r="B339" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="6">
+      <c r="C339" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="6">
+      <c r="E339" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="6">
+      <c r="F339" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="6">
+      <c r="G339" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="6">
+      <c r="H339" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9972,28 +10020,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="6">
+      <c r="B341" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="6">
+      <c r="C341" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="6">
+      <c r="D341" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="6">
+      <c r="E341" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="6">
+      <c r="F341" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="6">
+      <c r="G341" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="6">
+      <c r="H341" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="6">
+      <c r="I341" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -10081,10 +10129,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="6" t="s">
+      <c r="J344" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10128,28 +10176,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="6">
+      <c r="A346" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="6">
+      <c r="B346" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="6">
+      <c r="C346" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="6">
+      <c r="E346" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="6">
+      <c r="F346" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="6">
+      <c r="G346" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="6">
+      <c r="H346" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -10174,28 +10222,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="6">
+      <c r="B348" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="6">
+      <c r="C348" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="6">
+      <c r="D348" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="6">
+      <c r="E348" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="6">
+      <c r="F348" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="6">
+      <c r="G348" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="6">
+      <c r="H348" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="6">
+      <c r="I348" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -10283,10 +10331,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="6" t="s">
+      <c r="J351" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17404" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +234,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +261,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="19" customFormat="true">
+      <c r="A1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="19">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +308,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +354,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -433,10 +463,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -480,28 +510,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="14">
+      <c r="A10" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B10" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="14">
+      <c r="C10" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="14">
+      <c r="E10" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="14">
+      <c r="F10" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="14">
+      <c r="G10" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="14">
+      <c r="H10" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -526,28 +556,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="14">
+      <c r="C12" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="14">
+      <c r="D12" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="14">
+      <c r="E12" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="14">
+      <c r="F12" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="14">
+      <c r="G12" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="14">
+      <c r="I12" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -635,10 +665,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -682,28 +712,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="14">
+      <c r="A17" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="14">
+      <c r="B17" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="14">
+      <c r="C17" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="14">
+      <c r="E17" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="14">
+      <c r="F17" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="14">
+      <c r="G17" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="14">
+      <c r="H17" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -728,28 +758,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="14">
+      <c r="B19" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="14">
+      <c r="C19" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="14">
+      <c r="D19" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="14">
+      <c r="E19" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="14">
+      <c r="F19" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="14">
+      <c r="G19" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="14">
+      <c r="H19" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="14">
+      <c r="I19" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -837,10 +867,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -884,28 +914,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="14">
+      <c r="A24" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="14">
+      <c r="B24" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="14">
+      <c r="C24" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="14">
+      <c r="E24" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="14">
+      <c r="F24" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="14">
+      <c r="G24" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="14">
+      <c r="H24" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -930,28 +960,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="14">
+      <c r="B26" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="14">
+      <c r="C26" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="14">
+      <c r="D26" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="14">
+      <c r="E26" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="14">
+      <c r="F26" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="14">
+      <c r="G26" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="14">
+      <c r="H26" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="14">
+      <c r="I26" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1039,10 +1069,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="J29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1086,28 +1116,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="14">
+      <c r="A31" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="14">
+      <c r="B31" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="14">
+      <c r="C31" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="14">
+      <c r="E31" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="14">
+      <c r="F31" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="14">
+      <c r="G31" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="14">
+      <c r="H31" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1132,28 +1162,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="14">
+      <c r="B33" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="14">
+      <c r="C33" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="14">
+      <c r="D33" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="14">
+      <c r="E33" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="14">
+      <c r="F33" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="14">
+      <c r="G33" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="14">
+      <c r="H33" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="14">
+      <c r="I33" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1241,10 +1271,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="14" t="s">
+      <c r="J36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1288,28 +1318,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="14">
+      <c r="A38" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="14">
+      <c r="B38" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="14">
+      <c r="C38" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="14">
+      <c r="E38" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="14">
+      <c r="F38" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="14">
+      <c r="G38" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="14">
+      <c r="H38" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1334,28 +1364,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="14">
+      <c r="B40" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="14">
+      <c r="C40" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="14">
+      <c r="D40" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="14">
+      <c r="E40" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="14">
+      <c r="F40" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="14">
+      <c r="G40" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="14">
+      <c r="H40" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="14">
+      <c r="I40" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1443,10 +1473,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="14" t="s">
+      <c r="J43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1490,28 +1520,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="14">
+      <c r="A45" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="14">
+      <c r="B45" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="14">
+      <c r="C45" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="14">
+      <c r="E45" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="14">
+      <c r="F45" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="14">
+      <c r="G45" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="14">
+      <c r="H45" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1536,28 +1566,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="14">
+      <c r="B47" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="14">
+      <c r="C47" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="14">
+      <c r="D47" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="14">
+      <c r="E47" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="14">
+      <c r="F47" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="14">
+      <c r="G47" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="14">
+      <c r="H47" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="14">
+      <c r="I47" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1645,10 +1675,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="14" t="s">
+      <c r="J50" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1692,28 +1722,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="14">
+      <c r="A52" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="14">
+      <c r="B52" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="14">
+      <c r="C52" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="14">
+      <c r="E52" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="14">
+      <c r="F52" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="14">
+      <c r="G52" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="14">
+      <c r="H52" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1738,28 +1768,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="14">
+      <c r="B54" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="14">
+      <c r="C54" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="14">
+      <c r="D54" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="14">
+      <c r="E54" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="14">
+      <c r="F54" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="14">
+      <c r="G54" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="14">
+      <c r="H54" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="14">
+      <c r="I54" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1847,10 +1877,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="J57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1894,28 +1924,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="14">
+      <c r="A59" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="14">
+      <c r="B59" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="14">
+      <c r="C59" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="14">
+      <c r="E59" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="14">
+      <c r="F59" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="14">
+      <c r="G59" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="14">
+      <c r="H59" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1940,28 +1970,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="14">
+      <c r="B61" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="14">
+      <c r="C61" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="14">
+      <c r="D61" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="14">
+      <c r="E61" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="14">
+      <c r="F61" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="14">
+      <c r="G61" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="14">
+      <c r="H61" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="14">
+      <c r="I61" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2049,10 +2079,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="14" t="s">
+      <c r="J64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2096,28 +2126,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="14">
+      <c r="A66" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="14">
+      <c r="B66" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="14">
+      <c r="C66" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="14">
+      <c r="E66" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="14">
+      <c r="F66" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="14">
+      <c r="G66" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="14">
+      <c r="H66" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2142,28 +2172,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="14">
+      <c r="B68" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="14">
+      <c r="C68" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="14">
+      <c r="D68" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="14">
+      <c r="E68" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="14">
+      <c r="F68" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="14">
+      <c r="G68" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="14">
+      <c r="H68" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="14">
+      <c r="I68" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2251,10 +2281,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="14" t="s">
+      <c r="J71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2298,28 +2328,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="14">
+      <c r="A73" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="14">
+      <c r="B73" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="14">
+      <c r="C73" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="14">
+      <c r="E73" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="14">
+      <c r="F73" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="14">
+      <c r="G73" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="14">
+      <c r="H73" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2344,28 +2374,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="14">
+      <c r="B75" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="14">
+      <c r="C75" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="14">
+      <c r="D75" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="14">
+      <c r="E75" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="14">
+      <c r="F75" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="14">
+      <c r="G75" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="14">
+      <c r="H75" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="14">
+      <c r="I75" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2453,10 +2483,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="14" t="s">
+      <c r="J78" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2500,28 +2530,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="14">
+      <c r="A80" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="14">
+      <c r="B80" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="14">
+      <c r="C80" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="14">
+      <c r="E80" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="14">
+      <c r="F80" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="14">
+      <c r="G80" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="14">
+      <c r="H80" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2546,28 +2576,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="14">
+      <c r="B82" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="14">
+      <c r="C82" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="14">
+      <c r="D82" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="14">
+      <c r="E82" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="14">
+      <c r="F82" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="14">
+      <c r="G82" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="14">
+      <c r="H82" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="14">
+      <c r="I82" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2655,10 +2685,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="14" t="s">
+      <c r="J85" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2702,28 +2732,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="14">
+      <c r="A87" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="14">
+      <c r="B87" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="14">
+      <c r="C87" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="14">
+      <c r="E87" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="14">
+      <c r="F87" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="14">
+      <c r="G87" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="14">
+      <c r="H87" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2748,28 +2778,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="14">
+      <c r="B89" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="14">
+      <c r="C89" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="14">
+      <c r="D89" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="14">
+      <c r="E89" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="14">
+      <c r="F89" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="14">
+      <c r="G89" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="14">
+      <c r="H89" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="14">
+      <c r="I89" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2857,10 +2887,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="14" t="s">
+      <c r="J92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2904,28 +2934,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="14">
+      <c r="A94" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="14">
+      <c r="B94" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="14">
+      <c r="C94" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="14">
+      <c r="E94" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="14">
+      <c r="F94" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="14">
+      <c r="G94" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="14">
+      <c r="H94" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2950,28 +2980,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="14">
+      <c r="B96" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="14">
+      <c r="C96" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="14">
+      <c r="D96" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="14">
+      <c r="E96" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="14">
+      <c r="F96" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="14">
+      <c r="G96" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="14">
+      <c r="H96" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="14">
+      <c r="I96" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3059,10 +3089,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="14" t="s">
+      <c r="J99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3106,28 +3136,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="14">
+      <c r="A101" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="14">
+      <c r="B101" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="14">
+      <c r="C101" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="14">
+      <c r="E101" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="14">
+      <c r="F101" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="14">
+      <c r="G101" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="14">
+      <c r="H101" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3152,28 +3182,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="14">
+      <c r="B103" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="14">
+      <c r="C103" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="14">
+      <c r="D103" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="14">
+      <c r="E103" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="14">
+      <c r="F103" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="14">
+      <c r="G103" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="14">
+      <c r="H103" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="14">
+      <c r="I103" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3261,10 +3291,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="14" t="s">
+      <c r="J106" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3308,28 +3338,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="14">
+      <c r="A108" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="14">
+      <c r="B108" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="14">
+      <c r="C108" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="14">
+      <c r="E108" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="14">
+      <c r="F108" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="14">
+      <c r="G108" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="14">
+      <c r="H108" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3354,28 +3384,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="14">
+      <c r="B110" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="14">
+      <c r="C110" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="14">
+      <c r="D110" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="14">
+      <c r="E110" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="14">
+      <c r="F110" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="14">
+      <c r="G110" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="14">
+      <c r="H110" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="14">
+      <c r="I110" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3463,10 +3493,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="14" t="s">
+      <c r="J113" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3510,28 +3540,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="14">
+      <c r="A115" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="14">
+      <c r="B115" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="14">
+      <c r="C115" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="14">
+      <c r="E115" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="14">
+      <c r="F115" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="14">
+      <c r="G115" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="14">
+      <c r="H115" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3556,28 +3586,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="14">
+      <c r="B117" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="14">
+      <c r="C117" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="14">
+      <c r="D117" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="14">
+      <c r="E117" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="14">
+      <c r="F117" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="14">
+      <c r="G117" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="14">
+      <c r="H117" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="14">
+      <c r="I117" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3665,10 +3695,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="14" t="s">
+      <c r="J120" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3712,28 +3742,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="14">
+      <c r="A122" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="14">
+      <c r="B122" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="14">
+      <c r="C122" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="14">
+      <c r="E122" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="14">
+      <c r="F122" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="14">
+      <c r="G122" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="14">
+      <c r="H122" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3758,28 +3788,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="14">
+      <c r="C124" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="14">
+      <c r="D124" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="14">
+      <c r="E124" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="14">
+      <c r="G124" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="14">
+      <c r="H124" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="14">
+      <c r="I124" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3867,10 +3897,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="14" t="s">
+      <c r="J127" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3914,28 +3944,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="14">
+      <c r="A129" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="14">
+      <c r="B129" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="14">
+      <c r="C129" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="14">
+      <c r="E129" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="14">
+      <c r="F129" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="14">
+      <c r="G129" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="14">
+      <c r="H129" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3960,28 +3990,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="14">
+      <c r="B131" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="14">
+      <c r="C131" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="14">
+      <c r="D131" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="14">
+      <c r="E131" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="14">
+      <c r="F131" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="14">
+      <c r="G131" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="14">
+      <c r="H131" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="14">
+      <c r="I131" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4069,10 +4099,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="14" t="s">
+      <c r="J134" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4116,28 +4146,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="14">
+      <c r="A136" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="14">
+      <c r="B136" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="14">
+      <c r="C136" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="14">
+      <c r="E136" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="14">
+      <c r="F136" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="14">
+      <c r="G136" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="14">
+      <c r="H136" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4162,28 +4192,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="14">
+      <c r="B138" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="14">
+      <c r="C138" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="14">
+      <c r="D138" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="14">
+      <c r="E138" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="14">
+      <c r="F138" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="14">
+      <c r="G138" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="14">
+      <c r="H138" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="14">
+      <c r="I138" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4271,10 +4301,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="14" t="s">
+      <c r="J141" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4318,28 +4348,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="14">
+      <c r="A143" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="14">
+      <c r="B143" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="14">
+      <c r="C143" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="14">
+      <c r="E143" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="14">
+      <c r="F143" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="14">
+      <c r="G143" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="14">
+      <c r="H143" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4364,28 +4394,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="14">
+      <c r="B145" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="14">
+      <c r="C145" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="14">
+      <c r="D145" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="14">
+      <c r="E145" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="14">
+      <c r="F145" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="14">
+      <c r="G145" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="14">
+      <c r="H145" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="14">
+      <c r="I145" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4473,10 +4503,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="14" t="s">
+      <c r="J148" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4520,28 +4550,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="14">
+      <c r="A150" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="14">
+      <c r="B150" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="14">
+      <c r="C150" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="14">
+      <c r="E150" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="14">
+      <c r="F150" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="14">
+      <c r="G150" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="14">
+      <c r="H150" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4566,28 +4596,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="14">
+      <c r="B152" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="14">
+      <c r="C152" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="14">
+      <c r="D152" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="14">
+      <c r="E152" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="14">
+      <c r="F152" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="14">
+      <c r="G152" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="14">
+      <c r="H152" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="14">
+      <c r="I152" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4675,10 +4705,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="14" t="s">
+      <c r="J155" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4722,28 +4752,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="14">
+      <c r="A157" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="14">
+      <c r="B157" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="14">
+      <c r="C157" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="14">
+      <c r="E157" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="14">
+      <c r="F157" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="14">
+      <c r="G157" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="14">
+      <c r="H157" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4768,28 +4798,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="14">
+      <c r="B159" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="14">
+      <c r="C159" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="14">
+      <c r="D159" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="14">
+      <c r="E159" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="14">
+      <c r="F159" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="14">
+      <c r="G159" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="14">
+      <c r="H159" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="14">
+      <c r="I159" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4877,10 +4907,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="14" t="s">
+      <c r="J162" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4924,28 +4954,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="14">
+      <c r="A164" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="14">
+      <c r="B164" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="14">
+      <c r="C164" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="14">
+      <c r="E164" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="14">
+      <c r="F164" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="14">
+      <c r="G164" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="14">
+      <c r="H164" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4970,28 +5000,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="14">
+      <c r="B166" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="14">
+      <c r="C166" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="14">
+      <c r="D166" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="14">
+      <c r="E166" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="14">
+      <c r="F166" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="14">
+      <c r="G166" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="14">
+      <c r="H166" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="14">
+      <c r="I166" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5079,10 +5109,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="14" t="s">
+      <c r="J169" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5126,28 +5156,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="14">
+      <c r="A171" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="14">
+      <c r="B171" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="14">
+      <c r="C171" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="14">
+      <c r="E171" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="14">
+      <c r="F171" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="14">
+      <c r="G171" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="14">
+      <c r="H171" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5172,28 +5202,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="14">
+      <c r="B173" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="14">
+      <c r="C173" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="14">
+      <c r="D173" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="14">
+      <c r="E173" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="14">
+      <c r="F173" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="14">
+      <c r="G173" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="14">
+      <c r="H173" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="14">
+      <c r="I173" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5281,10 +5311,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="14" t="s">
+      <c r="J176" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5328,28 +5358,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="14">
+      <c r="A178" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="14">
+      <c r="B178" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="14">
+      <c r="C178" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="14">
+      <c r="E178" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="14">
+      <c r="F178" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="14">
+      <c r="G178" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="14">
+      <c r="H178" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5374,28 +5404,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="14">
+      <c r="B180" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="14">
+      <c r="C180" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="14">
+      <c r="D180" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="14">
+      <c r="E180" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="14">
+      <c r="F180" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="14">
+      <c r="G180" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="14">
+      <c r="H180" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="14">
+      <c r="I180" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5483,10 +5513,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="14" t="s">
+      <c r="J183" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5530,28 +5560,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="14">
+      <c r="A185" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="14">
+      <c r="B185" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="14">
+      <c r="C185" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="14">
+      <c r="E185" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="14">
+      <c r="F185" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="14">
+      <c r="G185" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="14">
+      <c r="H185" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5576,28 +5606,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="14">
+      <c r="B187" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="14">
+      <c r="C187" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="14">
+      <c r="D187" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="14">
+      <c r="E187" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="14">
+      <c r="F187" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="14">
+      <c r="G187" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="14">
+      <c r="H187" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="14">
+      <c r="I187" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5685,10 +5715,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="14" t="s">
+      <c r="J190" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5732,28 +5762,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="14">
+      <c r="A192" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="14">
+      <c r="B192" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="14">
+      <c r="C192" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="14">
+      <c r="E192" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="14">
+      <c r="F192" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="14">
+      <c r="G192" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="14">
+      <c r="H192" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5778,28 +5808,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="14">
+      <c r="B194" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="14">
+      <c r="C194" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="14">
+      <c r="D194" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="14">
+      <c r="E194" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="14">
+      <c r="F194" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="14">
+      <c r="G194" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="14">
+      <c r="H194" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="14">
+      <c r="I194" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5887,10 +5917,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="14" t="s">
+      <c r="J197" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5934,28 +5964,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="14">
+      <c r="A199" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="14">
+      <c r="B199" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="14">
+      <c r="C199" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="14">
+      <c r="E199" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="14">
+      <c r="F199" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="14">
+      <c r="G199" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="14">
+      <c r="H199" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5980,28 +6010,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="14">
+      <c r="B201" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="14">
+      <c r="C201" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="14">
+      <c r="D201" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="14">
+      <c r="E201" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="14">
+      <c r="F201" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="14">
+      <c r="G201" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="14">
+      <c r="H201" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="14">
+      <c r="I201" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6118,10 +6148,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="14" t="s">
+      <c r="J205" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6165,28 +6195,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="14">
+      <c r="A207" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="14">
+      <c r="B207" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="14">
+      <c r="C207" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="14">
+      <c r="E207" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="14">
+      <c r="F207" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="14">
+      <c r="G207" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="14">
+      <c r="H207" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6211,28 +6241,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="14">
+      <c r="B209" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="14">
+      <c r="C209" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="14">
+      <c r="D209" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="14">
+      <c r="E209" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="14">
+      <c r="F209" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="14">
+      <c r="G209" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="14">
+      <c r="H209" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="14">
+      <c r="I209" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6320,10 +6350,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="14" t="s">
+      <c r="J212" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6367,28 +6397,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="14">
+      <c r="A214" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="14">
+      <c r="B214" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="14">
+      <c r="C214" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="14">
+      <c r="E214" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="14">
+      <c r="F214" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="14">
+      <c r="G214" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="14">
+      <c r="H214" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6413,28 +6443,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="14">
+      <c r="B216" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="14">
+      <c r="C216" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="14">
+      <c r="D216" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="14">
+      <c r="E216" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="14">
+      <c r="F216" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="14">
+      <c r="G216" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="14">
+      <c r="H216" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="14">
+      <c r="I216" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6522,10 +6552,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="14" t="s">
+      <c r="J219" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6569,28 +6599,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="14">
+      <c r="A221" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="14">
+      <c r="B221" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="14">
+      <c r="C221" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="14">
+      <c r="E221" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="14">
+      <c r="F221" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="14">
+      <c r="G221" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="14">
+      <c r="H221" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6615,28 +6645,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="14">
+      <c r="B223" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="14">
+      <c r="C223" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="14">
+      <c r="D223" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="14">
+      <c r="E223" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="14">
+      <c r="F223" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="14">
+      <c r="G223" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="14">
+      <c r="H223" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="14">
+      <c r="I223" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6724,10 +6754,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="14" t="s">
+      <c r="J226" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6771,28 +6801,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="14">
+      <c r="A228" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="14">
+      <c r="B228" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="14">
+      <c r="C228" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="14">
+      <c r="E228" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="14">
+      <c r="F228" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="14">
+      <c r="G228" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="14">
+      <c r="H228" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6817,28 +6847,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="14">
+      <c r="B230" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="14">
+      <c r="C230" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="14">
+      <c r="D230" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="14">
+      <c r="E230" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="14">
+      <c r="F230" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="14">
+      <c r="G230" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="14">
+      <c r="H230" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="14">
+      <c r="I230" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6926,10 +6956,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="14" t="s">
+      <c r="J233" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6973,28 +7003,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="14">
+      <c r="A235" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="14">
+      <c r="B235" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="14">
+      <c r="C235" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="14">
+      <c r="E235" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="14">
+      <c r="F235" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="14">
+      <c r="G235" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="14">
+      <c r="H235" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7019,28 +7049,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="14">
+      <c r="B237" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="14">
+      <c r="C237" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="14">
+      <c r="D237" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="14">
+      <c r="E237" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="14">
+      <c r="F237" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="14">
+      <c r="G237" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="14">
+      <c r="H237" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="14">
+      <c r="I237" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7128,10 +7158,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="14" t="s">
+      <c r="J240" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7175,28 +7205,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="14">
+      <c r="A242" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="14">
+      <c r="B242" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="14">
+      <c r="C242" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="14">
+      <c r="E242" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="14">
+      <c r="F242" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="14">
+      <c r="G242" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="14">
+      <c r="H242" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7221,28 +7251,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="14">
+      <c r="B244" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="14">
+      <c r="C244" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="14">
+      <c r="D244" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="14">
+      <c r="E244" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="14">
+      <c r="F244" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="14">
+      <c r="G244" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="14">
+      <c r="H244" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="14">
+      <c r="I244" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7330,10 +7360,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="14" t="s">
+      <c r="J247" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7377,28 +7407,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="14">
+      <c r="A249" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="14">
+      <c r="B249" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="14">
+      <c r="C249" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="14">
+      <c r="E249" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="14">
+      <c r="F249" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="14">
+      <c r="G249" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="14">
+      <c r="H249" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7423,28 +7453,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="14">
+      <c r="B251" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="14">
+      <c r="C251" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="14">
+      <c r="D251" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="14">
+      <c r="E251" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="14">
+      <c r="F251" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="14">
+      <c r="G251" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="14">
+      <c r="H251" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="14">
+      <c r="I251" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7532,10 +7562,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="14" t="s">
+      <c r="J254" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7579,28 +7609,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="14">
+      <c r="A256" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="14">
+      <c r="B256" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="14">
+      <c r="C256" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="14">
+      <c r="E256" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="14">
+      <c r="F256" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="14">
+      <c r="G256" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="14">
+      <c r="H256" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7625,28 +7655,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="14">
+      <c r="B258" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="14">
+      <c r="C258" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="14">
+      <c r="D258" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="14">
+      <c r="E258" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="14">
+      <c r="F258" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="14">
+      <c r="G258" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="14">
+      <c r="H258" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="14">
+      <c r="I258" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7734,10 +7764,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="14" t="s">
+      <c r="J261" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7781,28 +7811,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="14">
+      <c r="A263" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="14">
+      <c r="B263" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="14">
+      <c r="C263" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="14">
+      <c r="E263" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="14">
+      <c r="F263" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="14">
+      <c r="G263" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="14">
+      <c r="H263" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7827,28 +7857,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="14">
+      <c r="B265" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="14">
+      <c r="C265" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="14">
+      <c r="D265" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="14">
+      <c r="E265" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="14">
+      <c r="F265" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="14">
+      <c r="G265" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="14">
+      <c r="H265" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="14">
+      <c r="I265" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7936,10 +7966,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="14" t="s">
+      <c r="J268" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7983,28 +8013,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="14">
+      <c r="A270" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="14">
+      <c r="B270" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="14">
+      <c r="C270" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="14">
+      <c r="E270" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="14">
+      <c r="F270" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="14">
+      <c r="G270" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="14">
+      <c r="H270" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8029,28 +8059,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="14">
+      <c r="B272" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="14">
+      <c r="C272" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="14">
+      <c r="D272" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="14">
+      <c r="E272" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="14">
+      <c r="F272" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="14">
+      <c r="G272" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="14">
+      <c r="H272" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="14">
+      <c r="I272" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8138,10 +8168,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="14" t="s">
+      <c r="J275" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8185,28 +8215,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="14">
+      <c r="A277" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="14">
+      <c r="B277" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="14">
+      <c r="C277" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="14">
+      <c r="E277" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="14">
+      <c r="F277" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="14">
+      <c r="G277" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="14">
+      <c r="H277" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8231,28 +8261,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="14">
+      <c r="B279" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="14">
+      <c r="C279" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="14">
+      <c r="D279" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="14">
+      <c r="E279" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="14">
+      <c r="F279" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="14">
+      <c r="G279" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="14">
+      <c r="H279" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="14">
+      <c r="I279" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8340,10 +8370,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="14" t="s">
+      <c r="J282" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8387,28 +8417,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="14">
+      <c r="A284" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="14">
+      <c r="B284" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="14">
+      <c r="C284" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="14">
+      <c r="E284" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="14">
+      <c r="F284" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="14">
+      <c r="G284" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="14">
+      <c r="H284" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8433,28 +8463,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="14">
+      <c r="B286" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="14">
+      <c r="C286" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="14">
+      <c r="D286" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="14">
+      <c r="E286" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="14">
+      <c r="F286" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="14">
+      <c r="G286" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="14">
+      <c r="H286" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="14">
+      <c r="I286" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8542,10 +8572,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="14" t="s">
+      <c r="J289" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8589,28 +8619,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="14">
+      <c r="A291" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="14">
+      <c r="B291" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="14">
+      <c r="C291" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="14">
+      <c r="E291" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="14">
+      <c r="F291" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="14">
+      <c r="G291" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="14">
+      <c r="H291" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8635,28 +8665,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="14">
+      <c r="B293" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="14">
+      <c r="C293" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="14">
+      <c r="D293" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="14">
+      <c r="E293" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="14">
+      <c r="F293" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="14">
+      <c r="G293" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="14">
+      <c r="H293" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="14">
+      <c r="I293" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8744,10 +8774,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="14" t="s">
+      <c r="J296" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8791,28 +8821,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="14">
+      <c r="A298" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="14">
+      <c r="B298" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="14">
+      <c r="C298" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="14">
+      <c r="E298" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="14">
+      <c r="F298" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="14">
+      <c r="G298" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="14">
+      <c r="H298" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8837,28 +8867,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="14">
+      <c r="B300" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="14">
+      <c r="C300" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="14">
+      <c r="D300" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="14">
+      <c r="E300" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="14">
+      <c r="F300" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="14">
+      <c r="G300" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="14">
+      <c r="H300" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="14">
+      <c r="I300" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8946,10 +8976,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="14" t="s">
+      <c r="J303" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8993,28 +9023,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="14">
+      <c r="A305" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="14">
+      <c r="B305" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="14">
+      <c r="C305" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="14">
+      <c r="E305" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="14">
+      <c r="F305" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="14">
+      <c r="G305" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="14">
+      <c r="H305" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9039,28 +9069,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="14">
+      <c r="B307" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="14">
+      <c r="C307" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="14">
+      <c r="D307" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="14">
+      <c r="E307" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="14">
+      <c r="F307" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="14">
+      <c r="G307" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="14">
+      <c r="H307" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="14">
+      <c r="I307" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9148,10 +9178,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="14" t="s">
+      <c r="J310" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9195,28 +9225,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="14">
+      <c r="A312" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="14">
+      <c r="B312" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="14">
+      <c r="C312" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="14">
+      <c r="E312" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="14">
+      <c r="F312" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="14">
+      <c r="G312" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="14">
+      <c r="H312" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9241,28 +9271,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="14">
+      <c r="B314" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="14">
+      <c r="C314" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="14">
+      <c r="D314" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="14">
+      <c r="E314" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="14">
+      <c r="F314" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="14">
+      <c r="G314" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="14">
+      <c r="H314" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="14">
+      <c r="I314" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9321,10 +9351,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="14" t="s">
+      <c r="J316" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9368,28 +9398,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="14">
+      <c r="A318" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="14">
+      <c r="B318" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="14">
+      <c r="C318" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="14">
+      <c r="E318" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="14">
+      <c r="F318" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="14">
+      <c r="G318" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="14">
+      <c r="H318" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9414,28 +9444,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="14">
+      <c r="B320" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="14">
+      <c r="C320" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="14">
+      <c r="D320" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="14">
+      <c r="E320" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="14">
+      <c r="F320" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="14">
+      <c r="G320" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="14">
+      <c r="H320" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="14">
+      <c r="I320" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9523,10 +9553,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="14" t="s">
+      <c r="J323" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9570,28 +9600,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="14">
+      <c r="A325" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="14">
+      <c r="B325" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="14">
+      <c r="C325" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="14">
+      <c r="E325" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="14">
+      <c r="F325" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="14">
+      <c r="G325" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="14">
+      <c r="H325" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9616,28 +9646,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="14">
+      <c r="B327" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="14">
+      <c r="C327" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="14">
+      <c r="D327" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="14">
+      <c r="E327" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="14">
+      <c r="F327" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="14">
+      <c r="G327" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="14">
+      <c r="H327" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="14">
+      <c r="I327" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9725,10 +9755,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="14" t="s">
+      <c r="J330" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9772,28 +9802,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="14">
+      <c r="A332" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="14">
+      <c r="B332" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="14">
+      <c r="C332" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="14">
+      <c r="E332" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="14">
+      <c r="F332" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="14">
+      <c r="G332" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="14">
+      <c r="H332" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9818,28 +9848,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="14">
+      <c r="B334" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="14">
+      <c r="C334" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="14">
+      <c r="D334" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="14">
+      <c r="E334" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="14">
+      <c r="F334" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="14">
+      <c r="G334" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="14">
+      <c r="H334" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="14">
+      <c r="I334" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9927,10 +9957,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="14" t="s">
+      <c r="J337" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9974,28 +10004,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="14">
+      <c r="A339" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="14">
+      <c r="B339" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="14">
+      <c r="C339" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="14">
+      <c r="E339" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="14">
+      <c r="F339" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="14">
+      <c r="G339" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="14">
+      <c r="H339" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -10020,28 +10050,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="14">
+      <c r="B341" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="14">
+      <c r="C341" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="14">
+      <c r="D341" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="14">
+      <c r="E341" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="14">
+      <c r="F341" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="14">
+      <c r="G341" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="14">
+      <c r="H341" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="14">
+      <c r="I341" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -10129,10 +10159,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="14" t="s">
+      <c r="J344" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10176,28 +10206,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="14">
+      <c r="A346" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="14">
+      <c r="B346" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="14">
+      <c r="C346" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="14">
+      <c r="E346" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="14">
+      <c r="F346" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="14">
+      <c r="G346" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="14">
+      <c r="H346" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -10222,28 +10252,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="14">
+      <c r="B348" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="14">
+      <c r="C348" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="14">
+      <c r="D348" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="14">
+      <c r="E348" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="14">
+      <c r="F348" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="14">
+      <c r="G348" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="14">
+      <c r="H348" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="14">
+      <c r="I348" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -10331,10 +10361,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="14" t="s">
+      <c r="J351" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
